--- a/data/trans_dic/P33_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,2; 85,95</t>
+          <t>78,25; 85,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,71; 80,6</t>
+          <t>71,41; 79,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,16; 82,27</t>
+          <t>73,88; 82,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,6; 80,43</t>
+          <t>72,85; 80,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,03; 85,73</t>
+          <t>76,67; 85,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,05; 84,06</t>
+          <t>74,33; 83,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,24; 84,13</t>
+          <t>75,05; 83,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,11; 76,16</t>
+          <t>68,63; 75,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,15; 84,52</t>
+          <t>79,04; 84,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,51; 80,78</t>
+          <t>74,41; 80,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,06; 82,07</t>
+          <t>75,94; 82,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,6; 77,19</t>
+          <t>72,15; 77,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,96; 90,2</t>
+          <t>82,17; 90,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,17; 79,03</t>
+          <t>69,46; 78,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,09; 78,71</t>
+          <t>68,68; 78,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,28; 80,71</t>
+          <t>72,01; 80,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,21; 85,84</t>
+          <t>77,89; 85,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,29; 76,61</t>
+          <t>66,44; 76,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,78; 83,89</t>
+          <t>75,3; 83,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,38; 76,05</t>
+          <t>68,64; 76,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,14; 86,76</t>
+          <t>81,2; 86,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>69,95; 77,04</t>
+          <t>69,81; 76,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,31; 79,87</t>
+          <t>73,48; 80,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,92; 77,74</t>
+          <t>71,93; 77,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,91; 83,71</t>
+          <t>76,93; 83,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,2; 76,7</t>
+          <t>69,0; 76,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,83; 78,55</t>
+          <t>71,06; 78,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,85; 92,71</t>
+          <t>66,03; 92,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,37; 80,17</t>
+          <t>66,59; 80,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,04; 76,18</t>
+          <t>65,16; 76,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,31; 82,19</t>
+          <t>68,39; 82,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,78; 75,95</t>
+          <t>64,14; 75,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>76,13; 82,41</t>
+          <t>75,95; 82,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,09; 75,33</t>
+          <t>69,37; 75,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,93; 78,63</t>
+          <t>72,05; 78,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>67,2; 92,46</t>
+          <t>66,7; 90,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,2; 80,15</t>
+          <t>75,19; 79,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,89; 75,44</t>
+          <t>70,04; 75,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,77; 77,92</t>
+          <t>73,03; 78,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,65; 76,12</t>
+          <t>69,75; 76,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,12; 81,28</t>
+          <t>75,69; 81,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,44; 74,32</t>
+          <t>67,37; 74,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,67; 74,12</t>
+          <t>67,62; 73,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 66,65</t>
+          <t>27,53; 66,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,34; 80,25</t>
+          <t>76,38; 80,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,82; 74,05</t>
+          <t>69,98; 74,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>71,77; 75,82</t>
+          <t>71,5; 75,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,56; 70,71</t>
+          <t>42,16; 70,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,12; 83,01</t>
+          <t>74,77; 83,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,78; 75,56</t>
+          <t>67,79; 75,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74,27; 80,84</t>
+          <t>74,04; 80,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,74; 78,17</t>
+          <t>69,39; 77,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,39; 78,97</t>
+          <t>71,6; 78,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,67; 65,74</t>
+          <t>58,66; 65,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>65,79; 72,42</t>
+          <t>65,37; 72,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>64,82; 77,0</t>
+          <t>64,63; 77,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,62; 79,35</t>
+          <t>73,78; 79,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,41; 68,75</t>
+          <t>62,94; 68,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,45; 75,31</t>
+          <t>70,29; 75,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>67,84; 75,99</t>
+          <t>67,71; 75,9</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,66; 95,19</t>
+          <t>88,84; 95,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,03; 87,14</t>
+          <t>77,68; 87,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,8; 88,44</t>
+          <t>79,7; 88,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>81,64; 95,22</t>
+          <t>80,43; 95,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,17; 74,32</t>
+          <t>69,14; 74,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,17; 65,85</t>
+          <t>59,95; 65,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,6; 70,53</t>
+          <t>64,67; 70,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,36; 75,12</t>
+          <t>69,49; 75,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,34; 77,96</t>
+          <t>73,59; 77,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,32; 69,44</t>
+          <t>64,22; 69,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,54; 73,67</t>
+          <t>68,52; 73,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>73,66; 79,3</t>
+          <t>73,57; 79,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,09; 82,71</t>
+          <t>80,08; 82,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,46; 75,61</t>
+          <t>72,4; 75,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,43; 78,36</t>
+          <t>75,37; 78,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,27; 81,79</t>
+          <t>74,34; 82,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,45; 77,34</t>
+          <t>74,57; 77,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,92; 69,11</t>
+          <t>65,94; 69,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,93; 72,97</t>
+          <t>69,88; 73,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,66; 70,62</t>
+          <t>51,58; 70,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77,54; 79,6</t>
+          <t>77,66; 79,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>69,57; 71,84</t>
+          <t>69,52; 71,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,13; 75,25</t>
+          <t>73,09; 75,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>64,75; 74,55</t>
+          <t>63,25; 74,35</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>384441</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>333008</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>336859</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>380208</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>249918</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>250930</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>277027</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>320436</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>634360</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>583939</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>613886</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>700645</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>365244; 399471</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>312212; 349020</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>317001; 352412</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>360717; 400107</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>235136; 262460</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>233748; 264073</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>260452; 290331</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>303393; 335512</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>611351; 656313</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>559327; 607035</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>589411; 637597</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>676263; 727052</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>314078</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>311686</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>278277</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>343949</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>304636</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>243297</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>297289</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>271370</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>618714</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>554982</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>575566</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>615320</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>299112; 328217</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>290248; 328699</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>258472; 294241</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>321773; 359366</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>288907; 318294</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>224590; 259780</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>280322; 312063</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>257875; 286340</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>596758; 638612</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>527652; 578230</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>550029; 599206</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>591637; 638815</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>433720</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>457649</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>390903</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>524027</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>121809</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>182049</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>123342</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>113661</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>555529</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>639698</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>514245</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>637688</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>412981; 450876</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>432849; 481419</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>369732; 409516</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>435759; 607444</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>109586; 132808</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>167320; 196652</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>110787; 133752</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>104018; 121981</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>532678; 576311</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>613307; 668149</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>491637; 535706</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>548314; 741776</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1474</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>948161</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>837596</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>866254</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>718736</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>556430</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>543893</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>584041</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>495400</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1504591</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1381488</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1450295</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1214136</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>914718; 972783</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>806888; 867897</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>837262; 895842</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>684482; 747047</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>535279; 577210</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>516522; 568419</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>556605; 608180</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>263162; 636537</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1469367; 1541750</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1342750; 1421317</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1408282; 1489447</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>816648; 1372558</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>273174</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>364939</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>480861</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>336422</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>427650</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>472757</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>506667</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>561139</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>700825</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>837696</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>987527</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>897560</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>258332; 288853</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>345258; 384632</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>458750; 501805</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>315302; 354173</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>407206; 448765</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>446160; 500712</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>481181; 531954</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>522661; 629623</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>674578; 726544</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>799175; 871390</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>952831; 1020046</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>855181; 958644</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>271298</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>220260</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>242500</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>213114</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>888621</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>697205</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>726291</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>529446</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1159919</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>917465</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>968792</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>742561</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>260890; 279156</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>206563; 231469</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>228862; 254258</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>190053; 225316</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>855980; 919279</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>662027; 728714</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>696249; 758903</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>508851; 549547</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1127063; 1194384</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>880009; 951717</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>934467; 1006207</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>712603; 766084</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2369</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2473</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2346</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3354</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4873</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5700</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2624873</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2525137</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2595653</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2516458</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2549065</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2390131</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2514659</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2291453</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5173939</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4915268</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5110312</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4807910</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2581307; 2667413</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2468423; 2576127</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2546660; 2646136</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2433971; 2704761</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2502467; 2602549</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2334682; 2446693</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2457788; 2570370</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1793159; 2456851</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5109629; 5239330</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4831804; 4988530</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5040063; 5187960</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4270088; 5019138</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P33_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
